--- a/6/1/2/1/2/Suscripciones diarias por plazo original 2021 - Diaria.xlsx
+++ b/6/1/2/1/2/Suscripciones diarias por plazo original 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Serie</t>
   </si>
@@ -416,6 +416,69 @@
   </si>
   <si>
     <t>30-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>02-07-2021</t>
+  </si>
+  <si>
+    <t>05-07-2021</t>
+  </si>
+  <si>
+    <t>06-07-2021</t>
+  </si>
+  <si>
+    <t>07-07-2021</t>
+  </si>
+  <si>
+    <t>08-07-2021</t>
+  </si>
+  <si>
+    <t>09-07-2021</t>
+  </si>
+  <si>
+    <t>12-07-2021</t>
+  </si>
+  <si>
+    <t>13-07-2021</t>
+  </si>
+  <si>
+    <t>14-07-2021</t>
+  </si>
+  <si>
+    <t>15-07-2021</t>
+  </si>
+  <si>
+    <t>19-07-2021</t>
+  </si>
+  <si>
+    <t>20-07-2021</t>
+  </si>
+  <si>
+    <t>21-07-2021</t>
+  </si>
+  <si>
+    <t>22-07-2021</t>
+  </si>
+  <si>
+    <t>23-07-2021</t>
+  </si>
+  <si>
+    <t>26-07-2021</t>
+  </si>
+  <si>
+    <t>27-07-2021</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
   </si>
 </sst>
 </file>
@@ -773,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4779,6 +4842,678 @@
         <v>64</v>
       </c>
     </row>
+    <row r="126" spans="1:10">
+      <c r="A126" t="s">
+        <v>134</v>
+      </c>
+      <c r="B126">
+        <v>623</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>84</v>
+      </c>
+      <c r="G126">
+        <v>88</v>
+      </c>
+      <c r="H126">
+        <v>237</v>
+      </c>
+      <c r="I126">
+        <v>33</v>
+      </c>
+      <c r="J126">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127">
+        <v>562</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>58</v>
+      </c>
+      <c r="H127">
+        <v>179</v>
+      </c>
+      <c r="I127">
+        <v>254</v>
+      </c>
+      <c r="J127">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129">
+        <v>654</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>168</v>
+      </c>
+      <c r="E129">
+        <v>49</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>258</v>
+      </c>
+      <c r="I129">
+        <v>104</v>
+      </c>
+      <c r="J129">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130">
+        <v>174</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>51</v>
+      </c>
+      <c r="I130">
+        <v>66</v>
+      </c>
+      <c r="J130">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131">
+        <v>960</v>
+      </c>
+      <c r="C131">
+        <v>192</v>
+      </c>
+      <c r="D131">
+        <v>450</v>
+      </c>
+      <c r="E131">
+        <v>30</v>
+      </c>
+      <c r="F131">
+        <v>45</v>
+      </c>
+      <c r="G131">
+        <v>20</v>
+      </c>
+      <c r="H131">
+        <v>102</v>
+      </c>
+      <c r="I131">
+        <v>87</v>
+      </c>
+      <c r="J131">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132">
+        <v>469</v>
+      </c>
+      <c r="C132">
+        <v>244</v>
+      </c>
+      <c r="D132">
+        <v>48</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>37</v>
+      </c>
+      <c r="G132">
+        <v>41</v>
+      </c>
+      <c r="H132">
+        <v>38</v>
+      </c>
+      <c r="I132">
+        <v>24</v>
+      </c>
+      <c r="J132">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133">
+        <v>664</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>64</v>
+      </c>
+      <c r="F133">
+        <v>145</v>
+      </c>
+      <c r="G133">
+        <v>40</v>
+      </c>
+      <c r="H133">
+        <v>183</v>
+      </c>
+      <c r="I133">
+        <v>191</v>
+      </c>
+      <c r="J133">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" t="s">
+        <v>142</v>
+      </c>
+      <c r="B134">
+        <v>711</v>
+      </c>
+      <c r="C134">
+        <v>192</v>
+      </c>
+      <c r="D134">
+        <v>48</v>
+      </c>
+      <c r="E134">
+        <v>32</v>
+      </c>
+      <c r="F134">
+        <v>44</v>
+      </c>
+      <c r="G134">
+        <v>15</v>
+      </c>
+      <c r="H134">
+        <v>181</v>
+      </c>
+      <c r="I134">
+        <v>162</v>
+      </c>
+      <c r="J134">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135">
+        <v>961</v>
+      </c>
+      <c r="C135">
+        <v>206</v>
+      </c>
+      <c r="D135">
+        <v>59</v>
+      </c>
+      <c r="E135">
+        <v>81</v>
+      </c>
+      <c r="F135">
+        <v>226</v>
+      </c>
+      <c r="G135">
+        <v>16</v>
+      </c>
+      <c r="H135">
+        <v>97</v>
+      </c>
+      <c r="I135">
+        <v>189</v>
+      </c>
+      <c r="J135">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" t="s">
+        <v>144</v>
+      </c>
+      <c r="B136">
+        <v>1059</v>
+      </c>
+      <c r="C136">
+        <v>294</v>
+      </c>
+      <c r="D136">
+        <v>392</v>
+      </c>
+      <c r="E136">
+        <v>32</v>
+      </c>
+      <c r="F136">
+        <v>22</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>64</v>
+      </c>
+      <c r="I136">
+        <v>134</v>
+      </c>
+      <c r="J136">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" t="s">
+        <v>145</v>
+      </c>
+      <c r="B137">
+        <v>354</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>62</v>
+      </c>
+      <c r="F137">
+        <v>62</v>
+      </c>
+      <c r="G137">
+        <v>42</v>
+      </c>
+      <c r="H137">
+        <v>72</v>
+      </c>
+      <c r="I137">
+        <v>42</v>
+      </c>
+      <c r="J137">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" t="s">
+        <v>146</v>
+      </c>
+      <c r="B138">
+        <v>696</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>122</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>200</v>
+      </c>
+      <c r="G138">
+        <v>58</v>
+      </c>
+      <c r="H138">
+        <v>223</v>
+      </c>
+      <c r="I138">
+        <v>56</v>
+      </c>
+      <c r="J138">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" t="s">
+        <v>147</v>
+      </c>
+      <c r="B139">
+        <v>203</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>23</v>
+      </c>
+      <c r="G139">
+        <v>88</v>
+      </c>
+      <c r="H139">
+        <v>46</v>
+      </c>
+      <c r="I139">
+        <v>21</v>
+      </c>
+      <c r="J139">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" t="s">
+        <v>148</v>
+      </c>
+      <c r="B140">
+        <v>581</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>237</v>
+      </c>
+      <c r="E140">
+        <v>92</v>
+      </c>
+      <c r="F140">
+        <v>113</v>
+      </c>
+      <c r="G140">
+        <v>50</v>
+      </c>
+      <c r="H140">
+        <v>59</v>
+      </c>
+      <c r="I140">
+        <v>27</v>
+      </c>
+      <c r="J140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141">
+        <v>171</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>39</v>
+      </c>
+      <c r="G141">
+        <v>16</v>
+      </c>
+      <c r="H141">
+        <v>38</v>
+      </c>
+      <c r="I141">
+        <v>43</v>
+      </c>
+      <c r="J141">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" t="s">
+        <v>150</v>
+      </c>
+      <c r="B142">
+        <v>481</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>213</v>
+      </c>
+      <c r="G142">
+        <v>81</v>
+      </c>
+      <c r="H142">
+        <v>102</v>
+      </c>
+      <c r="I142">
+        <v>5</v>
+      </c>
+      <c r="J142">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" t="s">
+        <v>151</v>
+      </c>
+      <c r="B143">
+        <v>371</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>96</v>
+      </c>
+      <c r="E143">
+        <v>32</v>
+      </c>
+      <c r="F143">
+        <v>38</v>
+      </c>
+      <c r="G143">
+        <v>51</v>
+      </c>
+      <c r="H143">
+        <v>58</v>
+      </c>
+      <c r="I143">
+        <v>35</v>
+      </c>
+      <c r="J143">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" t="s">
+        <v>152</v>
+      </c>
+      <c r="B144">
+        <v>917</v>
+      </c>
+      <c r="C144">
+        <v>96</v>
+      </c>
+      <c r="D144">
+        <v>321</v>
+      </c>
+      <c r="E144">
+        <v>31</v>
+      </c>
+      <c r="F144">
+        <v>124</v>
+      </c>
+      <c r="G144">
+        <v>25</v>
+      </c>
+      <c r="H144">
+        <v>201</v>
+      </c>
+      <c r="I144">
+        <v>47</v>
+      </c>
+      <c r="J144">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" t="s">
+        <v>153</v>
+      </c>
+      <c r="B145">
+        <v>440</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>58</v>
+      </c>
+      <c r="F145">
+        <v>48</v>
+      </c>
+      <c r="G145">
+        <v>13</v>
+      </c>
+      <c r="H145">
+        <v>229</v>
+      </c>
+      <c r="I145">
+        <v>38</v>
+      </c>
+      <c r="J145">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
+        <v>154</v>
+      </c>
+      <c r="B146">
+        <v>859</v>
+      </c>
+      <c r="C146">
+        <v>288</v>
+      </c>
+      <c r="D146">
+        <v>321</v>
+      </c>
+      <c r="E146">
+        <v>50</v>
+      </c>
+      <c r="F146">
+        <v>46</v>
+      </c>
+      <c r="G146">
+        <v>15</v>
+      </c>
+      <c r="H146">
+        <v>70</v>
+      </c>
+      <c r="I146">
+        <v>21</v>
+      </c>
+      <c r="J146">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/2/1/2/Suscripciones diarias por plazo original 2021 - Diaria.xlsx
+++ b/6/1/2/1/2/Suscripciones diarias por plazo original 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>Serie</t>
   </si>
@@ -479,6 +479,72 @@
   </si>
   <si>
     <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
   </si>
 </sst>
 </file>
@@ -836,7 +902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J146"/>
+  <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4879,7 +4945,7 @@
         <v>135</v>
       </c>
       <c r="B127">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -4903,7 +4969,7 @@
         <v>254</v>
       </c>
       <c r="J127">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -5199,7 +5265,7 @@
         <v>145</v>
       </c>
       <c r="B137">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -5220,7 +5286,7 @@
         <v>72</v>
       </c>
       <c r="I137">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="J137">
         <v>75</v>
@@ -5231,7 +5297,7 @@
         <v>146</v>
       </c>
       <c r="B138">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -5252,7 +5318,7 @@
         <v>223</v>
       </c>
       <c r="I138">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J138">
         <v>37</v>
@@ -5512,6 +5578,710 @@
       </c>
       <c r="J146">
         <v>48</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147">
+        <v>68</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>16</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>16</v>
+      </c>
+      <c r="J147">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
+        <v>156</v>
+      </c>
+      <c r="B148">
+        <v>196</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>48</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>39</v>
+      </c>
+      <c r="G148">
+        <v>27</v>
+      </c>
+      <c r="H148">
+        <v>45</v>
+      </c>
+      <c r="I148">
+        <v>8</v>
+      </c>
+      <c r="J148">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149">
+        <v>978</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>369</v>
+      </c>
+      <c r="E149">
+        <v>135</v>
+      </c>
+      <c r="F149">
+        <v>139</v>
+      </c>
+      <c r="G149">
+        <v>147</v>
+      </c>
+      <c r="H149">
+        <v>36</v>
+      </c>
+      <c r="I149">
+        <v>115</v>
+      </c>
+      <c r="J149">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150">
+        <v>621</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>286</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>170</v>
+      </c>
+      <c r="G150">
+        <v>53</v>
+      </c>
+      <c r="H150">
+        <v>73</v>
+      </c>
+      <c r="I150">
+        <v>9</v>
+      </c>
+      <c r="J150">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" t="s">
+        <v>159</v>
+      </c>
+      <c r="B151">
+        <v>740</v>
+      </c>
+      <c r="C151">
+        <v>153</v>
+      </c>
+      <c r="D151">
+        <v>128</v>
+      </c>
+      <c r="E151">
+        <v>32</v>
+      </c>
+      <c r="F151">
+        <v>48</v>
+      </c>
+      <c r="G151">
+        <v>77</v>
+      </c>
+      <c r="H151">
+        <v>174</v>
+      </c>
+      <c r="I151">
+        <v>61</v>
+      </c>
+      <c r="J151">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" t="s">
+        <v>160</v>
+      </c>
+      <c r="B152">
+        <v>796</v>
+      </c>
+      <c r="C152">
+        <v>96</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>156</v>
+      </c>
+      <c r="F152">
+        <v>180</v>
+      </c>
+      <c r="G152">
+        <v>79</v>
+      </c>
+      <c r="H152">
+        <v>201</v>
+      </c>
+      <c r="I152">
+        <v>74</v>
+      </c>
+      <c r="J152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" t="s">
+        <v>161</v>
+      </c>
+      <c r="B153">
+        <v>837</v>
+      </c>
+      <c r="C153">
+        <v>96</v>
+      </c>
+      <c r="D153">
+        <v>48</v>
+      </c>
+      <c r="E153">
+        <v>210</v>
+      </c>
+      <c r="F153">
+        <v>253</v>
+      </c>
+      <c r="G153">
+        <v>26</v>
+      </c>
+      <c r="H153">
+        <v>118</v>
+      </c>
+      <c r="I153">
+        <v>29</v>
+      </c>
+      <c r="J153">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154">
+        <v>1452</v>
+      </c>
+      <c r="C154">
+        <v>450</v>
+      </c>
+      <c r="D154">
+        <v>246</v>
+      </c>
+      <c r="E154">
+        <v>156</v>
+      </c>
+      <c r="F154">
+        <v>185</v>
+      </c>
+      <c r="G154">
+        <v>57</v>
+      </c>
+      <c r="H154">
+        <v>183</v>
+      </c>
+      <c r="I154">
+        <v>81</v>
+      </c>
+      <c r="J154">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" t="s">
+        <v>163</v>
+      </c>
+      <c r="B155">
+        <v>776</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>134</v>
+      </c>
+      <c r="E155">
+        <v>103</v>
+      </c>
+      <c r="F155">
+        <v>192</v>
+      </c>
+      <c r="G155">
+        <v>106</v>
+      </c>
+      <c r="H155">
+        <v>233</v>
+      </c>
+      <c r="I155">
+        <v>5</v>
+      </c>
+      <c r="J155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156">
+        <v>457</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>48</v>
+      </c>
+      <c r="E156">
+        <v>53</v>
+      </c>
+      <c r="F156">
+        <v>78</v>
+      </c>
+      <c r="G156">
+        <v>53</v>
+      </c>
+      <c r="H156">
+        <v>105</v>
+      </c>
+      <c r="I156">
+        <v>76</v>
+      </c>
+      <c r="J156">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" t="s">
+        <v>165</v>
+      </c>
+      <c r="B157">
+        <v>1049</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>92</v>
+      </c>
+      <c r="E157">
+        <v>32</v>
+      </c>
+      <c r="F157">
+        <v>69</v>
+      </c>
+      <c r="G157">
+        <v>314</v>
+      </c>
+      <c r="H157">
+        <v>456</v>
+      </c>
+      <c r="I157">
+        <v>80</v>
+      </c>
+      <c r="J157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" t="s">
+        <v>166</v>
+      </c>
+      <c r="B158">
+        <v>301</v>
+      </c>
+      <c r="C158">
+        <v>96</v>
+      </c>
+      <c r="D158">
+        <v>46</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>16</v>
+      </c>
+      <c r="H158">
+        <v>90</v>
+      </c>
+      <c r="I158">
+        <v>32</v>
+      </c>
+      <c r="J158">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" t="s">
+        <v>167</v>
+      </c>
+      <c r="B159">
+        <v>1005</v>
+      </c>
+      <c r="C159">
+        <v>191</v>
+      </c>
+      <c r="D159">
+        <v>46</v>
+      </c>
+      <c r="E159">
+        <v>32</v>
+      </c>
+      <c r="F159">
+        <v>158</v>
+      </c>
+      <c r="G159">
+        <v>42</v>
+      </c>
+      <c r="H159">
+        <v>337</v>
+      </c>
+      <c r="I159">
+        <v>69</v>
+      </c>
+      <c r="J159">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" t="s">
+        <v>168</v>
+      </c>
+      <c r="B160">
+        <v>429</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>48</v>
+      </c>
+      <c r="E160">
+        <v>64</v>
+      </c>
+      <c r="F160">
+        <v>72</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>96</v>
+      </c>
+      <c r="I160">
+        <v>66</v>
+      </c>
+      <c r="J160">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" t="s">
+        <v>169</v>
+      </c>
+      <c r="B161">
+        <v>459</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>80</v>
+      </c>
+      <c r="E161">
+        <v>84</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>109</v>
+      </c>
+      <c r="I161">
+        <v>156</v>
+      </c>
+      <c r="J161">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" t="s">
+        <v>170</v>
+      </c>
+      <c r="B162">
+        <v>575</v>
+      </c>
+      <c r="C162">
+        <v>96</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>32</v>
+      </c>
+      <c r="G162">
+        <v>32</v>
+      </c>
+      <c r="H162">
+        <v>289</v>
+      </c>
+      <c r="I162">
+        <v>84</v>
+      </c>
+      <c r="J162">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" t="s">
+        <v>171</v>
+      </c>
+      <c r="B163">
+        <v>862</v>
+      </c>
+      <c r="C163">
+        <v>307</v>
+      </c>
+      <c r="D163">
+        <v>297</v>
+      </c>
+      <c r="E163">
+        <v>63</v>
+      </c>
+      <c r="F163">
+        <v>48</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>96</v>
+      </c>
+      <c r="I163">
+        <v>5</v>
+      </c>
+      <c r="J163">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" t="s">
+        <v>172</v>
+      </c>
+      <c r="B164">
+        <v>1052</v>
+      </c>
+      <c r="C164">
+        <v>153</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>240</v>
+      </c>
+      <c r="F164">
+        <v>316</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>165</v>
+      </c>
+      <c r="I164">
+        <v>150</v>
+      </c>
+      <c r="J164">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" t="s">
+        <v>173</v>
+      </c>
+      <c r="B165">
+        <v>1487</v>
+      </c>
+      <c r="C165">
+        <v>31</v>
+      </c>
+      <c r="D165">
+        <v>156</v>
+      </c>
+      <c r="E165">
+        <v>450</v>
+      </c>
+      <c r="F165">
+        <v>524</v>
+      </c>
+      <c r="G165">
+        <v>126</v>
+      </c>
+      <c r="H165">
+        <v>145</v>
+      </c>
+      <c r="I165">
+        <v>48</v>
+      </c>
+      <c r="J165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" t="s">
+        <v>174</v>
+      </c>
+      <c r="B166">
+        <v>1092</v>
+      </c>
+      <c r="C166">
+        <v>158</v>
+      </c>
+      <c r="D166">
+        <v>160</v>
+      </c>
+      <c r="E166">
+        <v>31</v>
+      </c>
+      <c r="F166">
+        <v>439</v>
+      </c>
+      <c r="G166">
+        <v>210</v>
+      </c>
+      <c r="H166">
+        <v>84</v>
+      </c>
+      <c r="I166">
+        <v>10</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" t="s">
+        <v>175</v>
+      </c>
+      <c r="B167">
+        <v>631</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>71</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>250</v>
+      </c>
+      <c r="G167">
+        <v>108</v>
+      </c>
+      <c r="H167">
+        <v>158</v>
+      </c>
+      <c r="I167">
+        <v>25</v>
+      </c>
+      <c r="J167">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" t="s">
+        <v>176</v>
+      </c>
+      <c r="B168">
+        <v>674</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>205</v>
+      </c>
+      <c r="E168">
+        <v>63</v>
+      </c>
+      <c r="F168">
+        <v>142</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>144</v>
+      </c>
+      <c r="I168">
+        <v>64</v>
+      </c>
+      <c r="J168">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/2/1/2/Suscripciones diarias por plazo original 2021 - Diaria.xlsx
+++ b/6/1/2/1/2/Suscripciones diarias por plazo original 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>Serie</t>
   </si>
@@ -545,6 +545,69 @@
   </si>
   <si>
     <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
   </si>
 </sst>
 </file>
@@ -902,7 +965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J168"/>
+  <dimension ref="A1:J189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6284,6 +6347,678 @@
         <v>56</v>
       </c>
     </row>
+    <row r="169" spans="1:10">
+      <c r="A169" t="s">
+        <v>177</v>
+      </c>
+      <c r="B169">
+        <v>2044</v>
+      </c>
+      <c r="C169">
+        <v>1382</v>
+      </c>
+      <c r="D169">
+        <v>310</v>
+      </c>
+      <c r="E169">
+        <v>41</v>
+      </c>
+      <c r="F169">
+        <v>62</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>140</v>
+      </c>
+      <c r="I169">
+        <v>60</v>
+      </c>
+      <c r="J169">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" t="s">
+        <v>178</v>
+      </c>
+      <c r="B170">
+        <v>1141</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>91</v>
+      </c>
+      <c r="E170">
+        <v>236</v>
+      </c>
+      <c r="F170">
+        <v>299</v>
+      </c>
+      <c r="G170">
+        <v>93</v>
+      </c>
+      <c r="H170">
+        <v>230</v>
+      </c>
+      <c r="I170">
+        <v>119</v>
+      </c>
+      <c r="J170">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" t="s">
+        <v>179</v>
+      </c>
+      <c r="B171">
+        <v>515</v>
+      </c>
+      <c r="C171">
+        <v>90</v>
+      </c>
+      <c r="D171">
+        <v>62</v>
+      </c>
+      <c r="E171">
+        <v>21</v>
+      </c>
+      <c r="F171">
+        <v>128</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>95</v>
+      </c>
+      <c r="I171">
+        <v>70</v>
+      </c>
+      <c r="J171">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" t="s">
+        <v>180</v>
+      </c>
+      <c r="B172">
+        <v>139</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>48</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" t="s">
+        <v>181</v>
+      </c>
+      <c r="B173">
+        <v>354</v>
+      </c>
+      <c r="C173">
+        <v>62</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>77</v>
+      </c>
+      <c r="G173">
+        <v>52</v>
+      </c>
+      <c r="H173">
+        <v>106</v>
+      </c>
+      <c r="I173">
+        <v>22</v>
+      </c>
+      <c r="J173">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" t="s">
+        <v>182</v>
+      </c>
+      <c r="B174">
+        <v>749</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>239</v>
+      </c>
+      <c r="E174">
+        <v>52</v>
+      </c>
+      <c r="F174">
+        <v>120</v>
+      </c>
+      <c r="G174">
+        <v>16</v>
+      </c>
+      <c r="H174">
+        <v>128</v>
+      </c>
+      <c r="I174">
+        <v>61</v>
+      </c>
+      <c r="J174">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" t="s">
+        <v>183</v>
+      </c>
+      <c r="B175">
+        <v>1137</v>
+      </c>
+      <c r="C175">
+        <v>293</v>
+      </c>
+      <c r="D175">
+        <v>48</v>
+      </c>
+      <c r="E175">
+        <v>308</v>
+      </c>
+      <c r="F175">
+        <v>63</v>
+      </c>
+      <c r="G175">
+        <v>193</v>
+      </c>
+      <c r="H175">
+        <v>145</v>
+      </c>
+      <c r="I175">
+        <v>57</v>
+      </c>
+      <c r="J175">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" t="s">
+        <v>184</v>
+      </c>
+      <c r="B176">
+        <v>566</v>
+      </c>
+      <c r="C176">
+        <v>318</v>
+      </c>
+      <c r="D176">
+        <v>133</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>26</v>
+      </c>
+      <c r="I176">
+        <v>38</v>
+      </c>
+      <c r="J176">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" t="s">
+        <v>185</v>
+      </c>
+      <c r="B177">
+        <v>194</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>42</v>
+      </c>
+      <c r="H177">
+        <v>83</v>
+      </c>
+      <c r="I177">
+        <v>62</v>
+      </c>
+      <c r="J177">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" t="s">
+        <v>186</v>
+      </c>
+      <c r="B178">
+        <v>1380</v>
+      </c>
+      <c r="C178">
+        <v>96</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>128</v>
+      </c>
+      <c r="F178">
+        <v>230</v>
+      </c>
+      <c r="G178">
+        <v>115</v>
+      </c>
+      <c r="H178">
+        <v>584</v>
+      </c>
+      <c r="I178">
+        <v>132</v>
+      </c>
+      <c r="J178">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" t="s">
+        <v>187</v>
+      </c>
+      <c r="B179">
+        <v>704</v>
+      </c>
+      <c r="C179">
+        <v>155</v>
+      </c>
+      <c r="D179">
+        <v>80</v>
+      </c>
+      <c r="E179">
+        <v>52</v>
+      </c>
+      <c r="F179">
+        <v>127</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>215</v>
+      </c>
+      <c r="I179">
+        <v>47</v>
+      </c>
+      <c r="J179">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" t="s">
+        <v>188</v>
+      </c>
+      <c r="B180">
+        <v>182</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>47</v>
+      </c>
+      <c r="E180">
+        <v>32</v>
+      </c>
+      <c r="F180">
+        <v>15</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>36</v>
+      </c>
+      <c r="I180">
+        <v>29</v>
+      </c>
+      <c r="J180">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" t="s">
+        <v>189</v>
+      </c>
+      <c r="B181">
+        <v>255</v>
+      </c>
+      <c r="C181">
+        <v>96</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>24</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>36</v>
+      </c>
+      <c r="I181">
+        <v>68</v>
+      </c>
+      <c r="J181">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" t="s">
+        <v>190</v>
+      </c>
+      <c r="B182">
+        <v>482</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>52</v>
+      </c>
+      <c r="F182">
+        <v>87</v>
+      </c>
+      <c r="G182">
+        <v>52</v>
+      </c>
+      <c r="H182">
+        <v>96</v>
+      </c>
+      <c r="I182">
+        <v>136</v>
+      </c>
+      <c r="J182">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" t="s">
+        <v>191</v>
+      </c>
+      <c r="B183">
+        <v>401</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>159</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>98</v>
+      </c>
+      <c r="H183">
+        <v>53</v>
+      </c>
+      <c r="I183">
+        <v>24</v>
+      </c>
+      <c r="J183">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" t="s">
+        <v>192</v>
+      </c>
+      <c r="B184">
+        <v>622</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>47</v>
+      </c>
+      <c r="E184">
+        <v>189</v>
+      </c>
+      <c r="F184">
+        <v>39</v>
+      </c>
+      <c r="G184">
+        <v>82</v>
+      </c>
+      <c r="H184">
+        <v>55</v>
+      </c>
+      <c r="I184">
+        <v>142</v>
+      </c>
+      <c r="J184">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" t="s">
+        <v>193</v>
+      </c>
+      <c r="B185">
+        <v>102</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>16</v>
+      </c>
+      <c r="H185">
+        <v>8</v>
+      </c>
+      <c r="I185">
+        <v>34</v>
+      </c>
+      <c r="J185">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" t="s">
+        <v>194</v>
+      </c>
+      <c r="B186">
+        <v>1320</v>
+      </c>
+      <c r="C186">
+        <v>888</v>
+      </c>
+      <c r="D186">
+        <v>161</v>
+      </c>
+      <c r="E186">
+        <v>86</v>
+      </c>
+      <c r="F186">
+        <v>89</v>
+      </c>
+      <c r="G186">
+        <v>7</v>
+      </c>
+      <c r="H186">
+        <v>12</v>
+      </c>
+      <c r="I186">
+        <v>35</v>
+      </c>
+      <c r="J186">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" t="s">
+        <v>195</v>
+      </c>
+      <c r="B187">
+        <v>541</v>
+      </c>
+      <c r="C187">
+        <v>300</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>16</v>
+      </c>
+      <c r="H187">
+        <v>126</v>
+      </c>
+      <c r="I187">
+        <v>30</v>
+      </c>
+      <c r="J187">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" t="s">
+        <v>196</v>
+      </c>
+      <c r="B188">
+        <v>863</v>
+      </c>
+      <c r="C188">
+        <v>413</v>
+      </c>
+      <c r="D188">
+        <v>255</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>60</v>
+      </c>
+      <c r="I188">
+        <v>125</v>
+      </c>
+      <c r="J188">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" t="s">
+        <v>197</v>
+      </c>
+      <c r="B189">
+        <v>279</v>
+      </c>
+      <c r="C189">
+        <v>96</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>48</v>
+      </c>
+      <c r="H189">
+        <v>55</v>
+      </c>
+      <c r="I189">
+        <v>64</v>
+      </c>
+      <c r="J189">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
